--- a/Data/2017-09-01_96well_plate_pupae_storage.xlsx
+++ b/Data/2017-09-01_96well_plate_pupae_storage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-180" yWindow="140" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plate_layout" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="194">
   <si>
     <t>A</t>
   </si>
@@ -464,6 +464,144 @@
   </si>
   <si>
     <t>3:43</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -528,8 +666,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -562,7 +702,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -571,6 +711,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -579,6 +720,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17643,8 +17785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17709,6 +17851,9 @@
       <c r="G2" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6">
@@ -17732,6 +17877,9 @@
       <c r="G3" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="I3" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6">
@@ -17755,6 +17903,9 @@
       <c r="G4" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="I4" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6">
@@ -17778,6 +17929,9 @@
       <c r="G5" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="I5" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6">
@@ -17801,6 +17955,9 @@
       <c r="G6" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="I6" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6">
@@ -17824,6 +17981,9 @@
       <c r="G7" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="I7" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6">
@@ -17847,6 +18007,9 @@
       <c r="G8" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="I8" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6">
@@ -17870,6 +18033,9 @@
       <c r="G9" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="I9" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6">
@@ -17893,6 +18059,9 @@
       <c r="G10" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="I10" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6">
@@ -17916,6 +18085,9 @@
       <c r="G11" s="6" t="s">
         <v>132</v>
       </c>
+      <c r="I11" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6">
@@ -17939,6 +18111,9 @@
       <c r="G12" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="I12" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="6">
@@ -17962,6 +18137,9 @@
       <c r="G13" s="6" t="s">
         <v>134</v>
       </c>
+      <c r="I13" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6">
@@ -17985,6 +18163,9 @@
       <c r="G14" s="6" t="s">
         <v>135</v>
       </c>
+      <c r="I14" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6">
@@ -18008,6 +18189,9 @@
       <c r="G15" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="I15" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="6">
@@ -18031,8 +18215,11 @@
       <c r="G16" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="I16" s="6" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -18054,8 +18241,11 @@
       <c r="G17" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="I17" s="6" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -18077,8 +18267,11 @@
       <c r="G18" s="6" t="s">
         <v>135</v>
       </c>
+      <c r="I18" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -18100,8 +18293,11 @@
       <c r="G19" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="I19" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -18123,8 +18319,11 @@
       <c r="G20" s="6" t="s">
         <v>138</v>
       </c>
+      <c r="I20" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -18146,8 +18345,11 @@
       <c r="G21" s="6" t="s">
         <v>139</v>
       </c>
+      <c r="I21" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -18169,8 +18371,11 @@
       <c r="G22" s="6" t="s">
         <v>139</v>
       </c>
+      <c r="I22" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -18184,7 +18389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -18206,8 +18411,11 @@
       <c r="G24" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="I24" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -18229,8 +18437,11 @@
       <c r="G25" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="I25" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -18252,8 +18463,11 @@
       <c r="G26" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="I26" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -18267,7 +18481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>2</v>
       </c>
@@ -18289,8 +18503,11 @@
       <c r="G28" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="I28" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -18312,8 +18529,11 @@
       <c r="G29" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="I29" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>4</v>
       </c>
@@ -18335,8 +18555,11 @@
       <c r="G30" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="I30" s="6" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>5</v>
       </c>
@@ -18358,8 +18581,11 @@
       <c r="G31" s="6" t="s">
         <v>140</v>
       </c>
+      <c r="I31" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>6</v>
       </c>
@@ -18381,8 +18607,11 @@
       <c r="G32" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="I32" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:9">
       <c r="A33" s="6">
         <v>7</v>
       </c>
@@ -18404,8 +18633,11 @@
       <c r="G33" s="6" t="s">
         <v>141</v>
       </c>
+      <c r="I33" s="6" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>8</v>
       </c>
@@ -18427,8 +18659,11 @@
       <c r="G34" s="6" t="s">
         <v>142</v>
       </c>
+      <c r="I34" s="6" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:9">
       <c r="A35" s="6">
         <v>9</v>
       </c>
@@ -18450,8 +18685,11 @@
       <c r="G35" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="I35" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>10</v>
       </c>
@@ -18473,8 +18711,11 @@
       <c r="G36" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="I36" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9">
       <c r="A37" s="6">
         <v>11</v>
       </c>
@@ -18496,8 +18737,11 @@
       <c r="G37" s="6" t="s">
         <v>140</v>
       </c>
+      <c r="I37" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" s="6">
         <v>12</v>
       </c>
@@ -18519,8 +18763,11 @@
       <c r="G38" s="6" t="s">
         <v>145</v>
       </c>
+      <c r="I38" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39" s="6">
         <v>13</v>
       </c>
@@ -18542,8 +18789,11 @@
       <c r="G39" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="I39" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40" s="6">
         <v>14</v>
       </c>
@@ -18565,8 +18815,11 @@
       <c r="G40" s="6" t="s">
         <v>142</v>
       </c>
+      <c r="I40" s="6" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9">
       <c r="A41" s="6">
         <v>15</v>
       </c>
@@ -18588,8 +18841,11 @@
       <c r="G41" s="6" t="s">
         <v>146</v>
       </c>
+      <c r="I41" s="6" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>16</v>
       </c>
@@ -18611,8 +18867,11 @@
       <c r="G42" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="I42" s="6" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9">
       <c r="A43" s="6">
         <v>17</v>
       </c>
@@ -18634,8 +18893,11 @@
       <c r="G43" s="6" t="s">
         <v>142</v>
       </c>
+      <c r="I43" s="6" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>18</v>
       </c>
@@ -18657,8 +18919,11 @@
       <c r="G44" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="I44" s="6" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9">
       <c r="A45" s="6">
         <v>19</v>
       </c>
@@ -18680,8 +18945,11 @@
       <c r="G45" s="6" t="s">
         <v>146</v>
       </c>
+      <c r="I45" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9">
       <c r="A46" s="6">
         <v>20</v>
       </c>
@@ -18695,7 +18963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9">
       <c r="A47" s="6">
         <v>21</v>
       </c>
@@ -18709,7 +18977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9">
       <c r="A48" s="6">
         <v>22</v>
       </c>
@@ -18731,8 +18999,11 @@
       <c r="G48" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="I48" s="6" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9">
       <c r="A49" s="6">
         <v>23</v>
       </c>
@@ -18754,8 +19025,11 @@
       <c r="G49" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="I49" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50" s="6">
         <v>24</v>
       </c>
@@ -18777,8 +19051,11 @@
       <c r="G50" s="6" t="s">
         <v>141</v>
       </c>
+      <c r="I50" s="6" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9">
       <c r="A51" s="6">
         <v>25</v>
       </c>
@@ -18799,6 +19076,9 @@
       </c>
       <c r="G51" s="6" t="s">
         <v>147</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
